--- a/data/outputs/management_altmetric/81.xlsx
+++ b/data/outputs/management_altmetric/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE157"/>
+  <dimension ref="A1:CF157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,11 @@
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>citeulike</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
         </is>
       </c>
     </row>
@@ -1009,6 +1014,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1240,6 +1248,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1475,6 +1486,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1724,6 +1738,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1977,6 +1994,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2214,6 +2234,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2451,6 +2474,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2696,6 +2722,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2935,6 +2964,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3174,6 +3206,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3417,6 +3452,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3668,6 +3706,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3911,6 +3952,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4150,6 +4194,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4405,6 +4452,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4654,6 +4704,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4907,6 +4960,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5156,6 +5212,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5385,6 +5444,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5636,6 +5698,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5867,6 +5932,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6122,6 +6190,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6371,6 +6442,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6618,6 +6692,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6865,6 +6942,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7108,6 +7188,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7367,6 +7450,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7628,6 +7714,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>24.85</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7871,6 +7960,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8110,6 +8202,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8349,6 +8444,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8596,6 +8694,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8843,6 +8944,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9090,6 +9194,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9343,6 +9450,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9572,6 +9682,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9807,6 +9920,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10054,6 +10170,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10301,6 +10420,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10548,6 +10670,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10787,6 +10912,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11038,6 +11166,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11281,6 +11412,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11532,6 +11666,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11785,6 +11922,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12024,6 +12164,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12263,6 +12406,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12506,6 +12652,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12753,6 +12902,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13008,6 +13160,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13255,6 +13410,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13508,6 +13666,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13741,6 +13902,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13984,6 +14148,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14227,6 +14394,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14474,6 +14644,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14735,6 +14908,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14986,6 +15162,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15233,6 +15412,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15484,6 +15666,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15729,6 +15914,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15974,6 +16162,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16217,6 +16408,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16460,6 +16654,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16713,6 +16910,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16964,6 +17164,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17217,6 +17420,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17470,6 +17676,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17715,6 +17924,9 @@
         <v>0</v>
       </c>
       <c r="CE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17964,6 +18176,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18221,6 +18436,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18466,6 +18684,9 @@
         <v>0</v>
       </c>
       <c r="CE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18711,6 +18932,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18954,6 +19178,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19197,6 +19424,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19452,6 +19682,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19704,6 +19937,9 @@
       </c>
       <c r="CE78" t="n">
         <v>0</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
@@ -19946,6 +20182,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20189,6 +20428,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20434,6 +20676,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>4.95</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20691,6 +20936,9 @@
         <v>0</v>
       </c>
       <c r="CE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20936,6 +21184,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21189,6 +21440,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21440,6 +21694,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21691,6 +21948,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21946,6 +22206,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22193,6 +22456,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22438,6 +22704,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22671,6 +22940,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22934,6 +23206,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23193,6 +23468,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23442,6 +23720,9 @@
         <v>0</v>
       </c>
       <c r="CE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23687,6 +23968,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23928,6 +24212,9 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24161,6 +24448,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24400,6 +24690,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24643,6 +24936,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24898,6 +25194,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25137,6 +25436,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25376,6 +25678,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25625,6 +25930,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25872,6 +26180,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26111,6 +26422,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26362,6 +26676,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26601,6 +26918,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26848,6 +27168,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27099,6 +27422,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27354,6 +27680,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27601,6 +27930,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27848,6 +28180,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28095,6 +28430,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28346,6 +28684,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28593,6 +28934,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28838,6 +29182,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29067,6 +29414,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29310,6 +29660,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29557,6 +29910,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29796,6 +30152,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30035,6 +30394,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30282,6 +30644,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30529,6 +30894,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30768,6 +31136,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31007,6 +31378,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31266,6 +31640,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31503,6 +31880,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31748,6 +32128,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31995,6 +32378,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32250,6 +32636,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32489,6 +32878,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -32736,6 +33128,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -32975,6 +33370,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33224,6 +33622,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33463,6 +33864,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33706,6 +34110,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -33961,6 +34368,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34210,6 +34620,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34459,6 +34872,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34708,6 +35124,9 @@
         <v>0</v>
       </c>
       <c r="CE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34937,6 +35356,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35186,6 +35608,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35425,6 +35850,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35664,6 +36092,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -35905,6 +36336,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36152,6 +36586,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36395,6 +36832,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -36644,6 +37084,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -36883,6 +37326,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37122,6 +37568,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37365,6 +37814,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -37608,6 +38060,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -37849,6 +38304,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38094,6 +38552,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>5.05</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38341,6 +38802,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -38590,6 +39054,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -38837,6 +39304,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39082,6 +39552,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
